--- a/DateBase/orders/Nha Thu_2025-12-9.xlsx
+++ b/DateBase/orders/Nha Thu_2025-12-9.xlsx
@@ -910,6 +910,9 @@
       <c r="G2" t="str">
         <v>01010535301020201510111020101035108811781415131010105515551010703020555105210</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
